--- a/test/documentation/01.01Test_unitaire.xlsx
+++ b/test/documentation/01.01Test_unitaire.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stace\OneDrive\Bureau\G7démineur\ISIM_G7_WeekProject\ficher de test\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stace\OneDrive\Bureau\G7démineur\ISIM_G7_WeekProject\test\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD11990-82A7-457B-8D22-22CD713347EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3451A79F-489A-43C5-BA47-715989F94887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case.py" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Module : Case.py</t>
   </si>
@@ -47,6 +47,36 @@
   </si>
   <si>
     <t>Version 3</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Documents\GitHub\G7\python&gt;py -m unittest -v test_Case2.py testAvoirMineVoisine (test_Case2.testCase) ... ok testChangeDrapeau (test_Case2.testCase) ... ok 
+testDevenirBombe (test_Case2.testCase) ... ok 
+testRetourCase (test_Case2.testCase) ... FAIL ====================================================================== FAIL: testRetourCase (test_Case2.testCase) ---------------------------------------------------------------------- Traceback (most recent call last): File "C:\Users\User\Documents\GitHub\G7\python\test_Case2.py", line 27, in testRetourCase self.assertEqual(False,self.case01.mine) AssertionError: False != True ---------------------------------------------------------------------- Ran 4 tests in 0.006s FAILED (failures=1)</t>
+  </si>
+  <si>
+    <t>Date : 22-04-2020</t>
+  </si>
+  <si>
+    <t>Module : plateau.py</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultat Test:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commentaire:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultat Test: 
+</t>
+  </si>
+  <si>
+    <t>Commentaire:
+fonction RetourCase va être modifiée.</t>
   </si>
 </sst>
 </file>
@@ -62,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -90,6 +126,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,17 +414,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="5" max="7" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="77.7109375" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="7" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -405,20 +450,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="1:5" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -427,15 +472,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -447,15 +497,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39334E0-DBD3-4B18-9008-28ABD1A07D52}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,7 +523,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -481,21 +532,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="1:5" ht="276" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -504,8 +557,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>

--- a/test/documentation/01.01Test_unitaire.xlsx
+++ b/test/documentation/01.01Test_unitaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stace\OneDrive\Bureau\G7démineur\ISIM_G7_WeekProject\test\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3451A79F-489A-43C5-BA47-715989F94887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DAC94-0B5D-416D-BED8-8B3E878B6DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case.py" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Module : Case.py</t>
   </si>
@@ -77,6 +77,9 @@
   <si>
     <t>Commentaire:
 fonction RetourCase va être modifiée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module : </t>
   </si>
 </sst>
 </file>
@@ -416,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,13 +500,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39334E0-DBD3-4B18-9008-28ABD1A07D52}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -526,10 +529,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="276" customHeight="1" x14ac:dyDescent="0.25">
